--- a/StructureDefinition-SzPatient.xlsx
+++ b/StructureDefinition-SzPatient.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://192.168.10.200:3447/fhir/StructureDefinition/SzPatient</t>
+    <t>http://172.209.216.154:3447/fhir/StructureDefinition/SzPatient</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-09T11:11:31+00:00</t>
+    <t>2025-07-14T08:08:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Ministry of Health Eswatini (https://192.168.10.200:3447, eswatinihie@moh.gov.sz)</t>
+    <t>Ministry of Health Eswatini (https://172.209.216.154:3447, eswatinihie@moh.gov.sz)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -475,7 +475,7 @@
     <t>inkhundla</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://192.168.10.200:3447/fhir/StructureDefinition/SzInkhundlaExtension}
+    <t xml:space="preserve">Extension {http://172.209.216.154:3447/fhir/StructureDefinition/SzInkhundlaExtension}
 </t>
   </si>
   <si>
@@ -495,7 +495,7 @@
     <t>chiefdom</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://192.168.10.200:3447/fhir/StructureDefinition/SzChiefdomExtension}
+    <t xml:space="preserve">Extension {http://172.209.216.154:3447/fhir/StructureDefinition/SzChiefdomExtension}
 </t>
   </si>
   <si>
@@ -751,7 +751,7 @@
     <t>Need to refer to a particular code in the system.</t>
   </si>
   <si>
-    <t>http://192.168.10.200:3447/fhir/ValueSet/PersonIdentifiersVS</t>
+    <t>http://172.209.216.154:3447/fhir/ValueSet/PersonIdentifiersVS</t>
   </si>
   <si>
     <t>Coding.code</t>
@@ -2361,7 +2361,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="69.42578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="70.42578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2376,7 +2376,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.2890625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="50.2890625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-SzPatient.xlsx
+++ b/StructureDefinition-SzPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-14T08:08:58+00:00</t>
+    <t>2025-07-16T14:06:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzPatient.xlsx
+++ b/StructureDefinition-SzPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T14:06:30+00:00</t>
+    <t>2025-08-01T12:25:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -469,6 +469,10 @@
     <t>Patient's nationality according to ID document</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>Patient.extension:inkhundla</t>
   </si>
   <si>
@@ -483,10 +487,6 @@
   </si>
   <si>
     <t>Extention for Eswatini Tinkhundla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>Patient.extension:chiefdom</t>
@@ -3542,7 +3542,7 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>139</v>
@@ -3565,13 +3565,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>20</v>
@@ -3593,13 +3593,13 @@
         <v>20</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3659,7 +3659,7 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>139</v>
@@ -3776,7 +3776,7 @@
         <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>139</v>
@@ -8234,7 +8234,7 @@
         <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>139</v>

--- a/StructureDefinition-SzPatient.xlsx
+++ b/StructureDefinition-SzPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-01T12:25:19+00:00</t>
+    <t>2025-09-08T12:30:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzPatient.xlsx
+++ b/StructureDefinition-SzPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-08T12:30:01+00:00</t>
+    <t>2025-09-09T15:13:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzPatient.xlsx
+++ b/StructureDefinition-SzPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-09T15:13:38+00:00</t>
+    <t>2025-09-10T08:40:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzPatient.xlsx
+++ b/StructureDefinition-SzPatient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T08:40:27+00:00</t>
+    <t>2025-09-10T10:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-SzPatient.xlsx
+++ b/StructureDefinition-SzPatient.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$94</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3489" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3526" uniqueCount="652">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T10:05:20+00:00</t>
+    <t>2025-09-19T08:18:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -503,6 +503,19 @@
   </si>
   <si>
     <t>Extention for Eswatini Chiefdom</t>
+  </si>
+  <si>
+    <t>Patient.extension:registrationDate</t>
+  </si>
+  <si>
+    <t>registrationDate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://172.209.216.154:3447/fhir/StructureDefinition/SzRegistrationDate}
+</t>
+  </si>
+  <si>
+    <t>Date the patient was registered</t>
   </si>
   <si>
     <t>Patient.modifierExtension</t>
@@ -2342,7 +2355,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO93"/>
+  <dimension ref="A1:AO94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2353,7 +2366,7 @@
   <cols>
     <col min="1" max="1" width="34.49609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="34.49609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="13.75390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -3346,7 +3359,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>80</v>
@@ -3802,43 +3815,41 @@
         <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="D13" t="s" s="2">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>20</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>20</v>
       </c>
@@ -3886,7 +3897,7 @@
         <v>20</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3895,13 +3906,13 @@
         <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>139</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>20</v>
@@ -3918,18 +3929,18 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>80</v>
@@ -3938,23 +3949,25 @@
         <v>20</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>20</v>
@@ -4003,7 +4016,7 @@
         <v>20</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -4015,19 +4028,19 @@
         <v>20</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>169</v>
+        <v>20</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>170</v>
+        <v>20</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>171</v>
+        <v>20</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>20</v>
@@ -4035,10 +4048,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -4046,10 +4059,10 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>20</v>
@@ -4058,19 +4071,21 @@
         <v>20</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="O15" t="s" s="2">
+        <v>171</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
       </c>
@@ -4118,31 +4133,31 @@
         <v>20</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>20</v>
+        <v>173</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>20</v>
@@ -4150,21 +4165,21 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>20</v>
@@ -4176,17 +4191,15 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M16" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>20</v>
@@ -4223,34 +4236,34 @@
         <v>20</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="AC16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>20</v>
@@ -4267,46 +4280,44 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M17" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="N17" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>20</v>
       </c>
@@ -4330,46 +4341,46 @@
         <v>20</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>189</v>
+        <v>20</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>190</v>
+        <v>20</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>20</v>
@@ -4378,7 +4389,7 @@
         <v>20</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>131</v>
+        <v>20</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>20</v>
@@ -4386,10 +4397,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4397,7 +4408,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>88</v>
@@ -4406,25 +4417,25 @@
         <v>20</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>194</v>
+        <v>108</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>20</v>
@@ -4449,13 +4460,13 @@
         <v>20</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>20</v>
@@ -4473,7 +4484,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -4488,7 +4499,7 @@
         <v>100</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>20</v>
@@ -4497,7 +4508,7 @@
         <v>20</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>203</v>
+        <v>131</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>20</v>
@@ -4505,10 +4516,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4516,7 +4527,7 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>88</v>
@@ -4528,19 +4539,23 @@
         <v>20</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>20</v>
       </c>
@@ -4564,13 +4579,13 @@
         <v>20</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>20</v>
+        <v>203</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>20</v>
+        <v>204</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>20</v>
@@ -4588,7 +4603,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4600,10 +4615,10 @@
         <v>20</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>20</v>
@@ -4612,7 +4627,7 @@
         <v>20</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>20</v>
@@ -4620,21 +4635,21 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>20</v>
@@ -4646,17 +4661,15 @@
         <v>20</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -4693,34 +4706,34 @@
         <v>20</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="AC20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>20</v>
@@ -4737,14 +4750,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4760,23 +4773,21 @@
         <v>20</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>20</v>
       </c>
@@ -4812,19 +4823,19 @@
         <v>20</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4836,10 +4847,10 @@
         <v>20</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>20</v>
@@ -4848,7 +4859,7 @@
         <v>20</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>214</v>
+        <v>20</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>20</v>
@@ -4856,10 +4867,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4870,7 +4881,7 @@
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>20</v>
@@ -4879,19 +4890,23 @@
         <v>20</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+        <v>213</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>20</v>
       </c>
@@ -4939,22 +4954,22 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>20</v>
@@ -4963,7 +4978,7 @@
         <v>20</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>20</v>
+        <v>218</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>20</v>
@@ -4971,21 +4986,21 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>20</v>
@@ -4997,17 +5012,15 @@
         <v>20</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M23" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -5044,34 +5057,34 @@
         <v>20</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="AC23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>20</v>
@@ -5088,21 +5101,21 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>20</v>
@@ -5111,23 +5124,21 @@
         <v>20</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>20</v>
       </c>
@@ -5163,34 +5174,34 @@
         <v>20</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>222</v>
+        <v>186</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>20</v>
@@ -5199,7 +5210,7 @@
         <v>20</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>224</v>
+        <v>20</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>20</v>
@@ -5207,10 +5218,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5233,18 +5244,20 @@
         <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>173</v>
+        <v>102</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="O25" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="O25" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
       </c>
@@ -5292,7 +5305,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -5307,7 +5320,7 @@
         <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>20</v>
@@ -5316,7 +5329,7 @@
         <v>20</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>20</v>
@@ -5324,10 +5337,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5350,18 +5363,18 @@
         <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>108</v>
+        <v>177</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>20</v>
       </c>
@@ -5385,11 +5398,13 @@
         <v>20</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="Y26" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="Z26" t="s" s="2">
-        <v>236</v>
+        <v>20</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>20</v>
@@ -5407,7 +5422,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5422,7 +5437,7 @@
         <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>20</v>
@@ -5431,7 +5446,7 @@
         <v>20</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>20</v>
@@ -5439,10 +5454,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5465,17 +5480,17 @@
         <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -5500,13 +5515,11 @@
         <v>20</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>20</v>
@@ -5524,7 +5537,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5539,7 +5552,7 @@
         <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>20</v>
@@ -5548,7 +5561,7 @@
         <v>20</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>20</v>
@@ -5556,10 +5569,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5582,19 +5595,17 @@
         <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>248</v>
+        <v>177</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>20</v>
@@ -5643,7 +5654,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -5658,7 +5669,7 @@
         <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>20</v>
@@ -5667,7 +5678,7 @@
         <v>20</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>20</v>
@@ -5675,10 +5686,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5701,19 +5712,19 @@
         <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>173</v>
+        <v>252</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -5762,7 +5773,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5777,7 +5788,7 @@
         <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>20</v>
@@ -5786,7 +5797,7 @@
         <v>20</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>20</v>
@@ -5794,10 +5805,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5820,19 +5831,19 @@
         <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>102</v>
+        <v>177</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -5845,7 +5856,7 @@
         <v>20</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>269</v>
+        <v>20</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>20</v>
@@ -5881,7 +5892,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5896,7 +5907,7 @@
         <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>20</v>
@@ -5905,7 +5916,7 @@
         <v>20</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>20</v>
@@ -5913,10 +5924,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5924,7 +5935,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>88</v>
@@ -5939,18 +5950,20 @@
         <v>89</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>173</v>
+        <v>102</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>20</v>
       </c>
@@ -5962,7 +5975,7 @@
         <v>20</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="U31" t="s" s="2">
         <v>20</v>
@@ -5998,7 +6011,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -6013,7 +6026,7 @@
         <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>20</v>
@@ -6022,7 +6035,7 @@
         <v>20</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>20</v>
@@ -6030,10 +6043,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6041,7 +6054,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>88</v>
@@ -6056,15 +6069,17 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>282</v>
+        <v>177</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -6077,7 +6092,7 @@
         <v>20</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>20</v>
+        <v>281</v>
       </c>
       <c r="U32" t="s" s="2">
         <v>20</v>
@@ -6113,7 +6128,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -6128,7 +6143,7 @@
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>20</v>
@@ -6137,7 +6152,7 @@
         <v>20</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>20</v>
@@ -6145,10 +6160,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6171,17 +6186,15 @@
         <v>89</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>20</v>
@@ -6230,7 +6243,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -6245,7 +6258,7 @@
         <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>20</v>
@@ -6254,7 +6267,7 @@
         <v>20</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
@@ -6262,10 +6275,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6282,76 +6295,72 @@
         <v>20</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>248</v>
+        <v>293</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF34" t="s" s="2">
         <v>297</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="P34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q34" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="R34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>296</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -6366,16 +6375,16 @@
         <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>177</v>
+        <v>20</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>303</v>
+        <v>20</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>20</v>
+        <v>299</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>20</v>
@@ -6383,10 +6392,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6394,39 +6403,41 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I35" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="P35" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q35" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="P35" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
         <v>20</v>
       </c>
@@ -6470,13 +6481,13 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>20</v>
@@ -6485,16 +6496,16 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>311</v>
+        <v>181</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>20</v>
+        <v>307</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>312</v>
+        <v>20</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>20</v>
@@ -6502,10 +6513,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6513,31 +6524,35 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>173</v>
+        <v>309</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>174</v>
+        <v>310</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>20</v>
       </c>
@@ -6585,31 +6600,31 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>176</v>
+        <v>308</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>177</v>
+        <v>314</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>20</v>
+        <v>315</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>20</v>
+        <v>316</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>20</v>
@@ -6617,21 +6632,21 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>20</v>
@@ -6643,17 +6658,15 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M37" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>20</v>
@@ -6690,34 +6703,34 @@
         <v>20</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="AC37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>20</v>
@@ -6734,46 +6747,44 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>316</v>
+        <v>183</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>317</v>
+        <v>184</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>20</v>
       </c>
@@ -6797,46 +6808,46 @@
         <v>20</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>320</v>
+        <v>20</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>321</v>
+        <v>20</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>322</v>
+        <v>186</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>323</v>
+        <v>181</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>20</v>
@@ -6845,7 +6856,7 @@
         <v>20</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>324</v>
+        <v>20</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>20</v>
@@ -6853,10 +6864,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6873,25 +6884,25 @@
         <v>20</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -6916,13 +6927,13 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>20</v>
+        <v>324</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>20</v>
+        <v>325</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -6940,7 +6951,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6955,7 +6966,7 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>20</v>
@@ -6964,7 +6975,7 @@
         <v>20</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>20</v>
@@ -6972,18 +6983,18 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>334</v>
+        <v>20</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>88</v>
@@ -6998,18 +7009,20 @@
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
       </c>
@@ -7057,7 +7070,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -7072,7 +7085,7 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>20</v>
@@ -7081,7 +7094,7 @@
         <v>20</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>20</v>
@@ -7089,21 +7102,21 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>20</v>
@@ -7115,16 +7128,16 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7174,13 +7187,13 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>20</v>
@@ -7189,7 +7202,7 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>20</v>
@@ -7198,7 +7211,7 @@
         <v>20</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>20</v>
@@ -7206,18 +7219,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>20</v>
+        <v>346</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>80</v>
@@ -7232,15 +7245,17 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>20</v>
@@ -7289,7 +7304,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7304,7 +7319,7 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>20</v>
@@ -7313,7 +7328,7 @@
         <v>20</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
@@ -7321,10 +7336,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7347,13 +7362,13 @@
         <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7404,7 +7419,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7419,7 +7434,7 @@
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>20</v>
@@ -7428,7 +7443,7 @@
         <v>20</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
@@ -7436,10 +7451,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7450,7 +7465,7 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>20</v>
@@ -7462,18 +7477,16 @@
         <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>282</v>
+        <v>177</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>363</v>
-      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>20</v>
       </c>
@@ -7521,13 +7534,13 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>20</v>
@@ -7536,7 +7549,7 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>20</v>
@@ -7545,7 +7558,7 @@
         <v>20</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
@@ -7553,10 +7566,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7567,7 +7580,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>20</v>
@@ -7579,19 +7592,17 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>368</v>
+        <v>286</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -7640,13 +7651,13 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>20</v>
@@ -7655,16 +7666,16 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>374</v>
+        <v>20</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>20</v>
@@ -7672,10 +7683,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7683,10 +7694,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>20</v>
@@ -7698,19 +7709,19 @@
         <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>108</v>
+        <v>372</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -7735,13 +7746,13 @@
         <v>20</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>381</v>
+        <v>20</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>382</v>
+        <v>20</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>20</v>
@@ -7759,13 +7770,13 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>20</v>
@@ -7774,16 +7785,16 @@
         <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>20</v>
@@ -7791,10 +7802,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7808,7 +7819,7 @@
         <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>20</v>
@@ -7817,19 +7828,19 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>387</v>
+        <v>108</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>20</v>
@@ -7854,13 +7865,13 @@
         <v>20</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>20</v>
+        <v>385</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>20</v>
+        <v>386</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>20</v>
@@ -7878,7 +7889,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7893,27 +7904,27 @@
         <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>395</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7921,31 +7932,35 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>173</v>
+        <v>391</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
       </c>
@@ -7993,7 +8008,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>176</v>
+        <v>390</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -8005,30 +8020,30 @@
         <v>20</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>20</v>
+        <v>396</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>20</v>
+        <v>397</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>20</v>
+        <v>398</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>20</v>
+        <v>399</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8039,7 +8054,7 @@
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>20</v>
@@ -8051,13 +8066,13 @@
         <v>20</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>135</v>
+        <v>402</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8096,29 +8111,31 @@
         <v>20</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AC49" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>20</v>
+      </c>
       <c r="AD49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>20</v>
@@ -8138,14 +8155,12 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>402</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
         <v>20</v>
       </c>
@@ -8154,7 +8169,7 @@
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>20</v>
@@ -8166,17 +8181,15 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>403</v>
+        <v>133</v>
       </c>
       <c r="L50" t="s" s="2">
         <v>404</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>20</v>
@@ -8213,19 +8226,17 @@
         <v>20</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>20</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AC50" s="2"/>
       <c r="AD50" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -8234,7 +8245,7 @@
         <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>145</v>
+        <v>20</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>139</v>
@@ -8257,12 +8268,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>407</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>403</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="D51" t="s" s="2">
         <v>20</v>
       </c>
@@ -8283,7 +8296,7 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>387</v>
+        <v>407</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>408</v>
@@ -8291,7 +8304,9 @@
       <c r="M51" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="N51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>410</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -8340,19 +8355,19 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>410</v>
+        <v>186</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>20</v>
+        <v>139</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>20</v>
@@ -8392,26 +8407,22 @@
         <v>20</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="M52" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>416</v>
-      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>20</v>
       </c>
@@ -8459,7 +8470,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8471,19 +8482,19 @@
         <v>20</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>417</v>
+        <v>20</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>177</v>
+        <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>418</v>
+        <v>20</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>20</v>
@@ -8491,10 +8502,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8505,31 +8516,31 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="O53" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -8578,13 +8589,13 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>20</v>
@@ -8593,16 +8604,16 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>426</v>
+        <v>181</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>20</v>
@@ -8610,10 +8621,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8624,28 +8635,32 @@
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>173</v>
+        <v>424</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>174</v>
+        <v>425</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
+        <v>426</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>428</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>20</v>
       </c>
@@ -8693,31 +8708,31 @@
         <v>20</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>176</v>
+        <v>423</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>177</v>
+        <v>429</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>20</v>
+        <v>430</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>20</v>
+        <v>431</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>20</v>
@@ -8725,21 +8740,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>20</v>
@@ -8751,17 +8766,15 @@
         <v>20</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M55" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>20</v>
@@ -8798,34 +8811,34 @@
         <v>20</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="AC55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>20</v>
@@ -8842,46 +8855,44 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>431</v>
+        <v>183</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>432</v>
+        <v>184</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>20</v>
       </c>
@@ -8893,7 +8904,7 @@
         <v>20</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>435</v>
+        <v>20</v>
       </c>
       <c r="U56" t="s" s="2">
         <v>20</v>
@@ -8905,46 +8916,46 @@
         <v>20</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>436</v>
+        <v>20</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>437</v>
+        <v>20</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>20</v>
+        <v>185</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>438</v>
+        <v>186</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>323</v>
+        <v>181</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>20</v>
@@ -8953,7 +8964,7 @@
         <v>20</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>439</v>
+        <v>20</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>20</v>
@@ -8961,10 +8972,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8981,7 +8992,7 @@
         <v>20</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>89</v>
@@ -8990,15 +9001,17 @@
         <v>108</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>437</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>438</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>20</v>
       </c>
@@ -9010,7 +9023,7 @@
         <v>20</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="U57" t="s" s="2">
         <v>20</v>
@@ -9022,13 +9035,13 @@
         <v>20</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>20</v>
@@ -9046,7 +9059,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -9061,7 +9074,7 @@
         <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>20</v>
@@ -9070,7 +9083,7 @@
         <v>20</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>20</v>
@@ -9078,10 +9091,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9104,20 +9117,18 @@
         <v>89</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>173</v>
+        <v>108</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>447</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>20</v>
       </c>
@@ -9129,7 +9140,7 @@
         <v>20</v>
       </c>
       <c r="T58" t="s" s="2">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="U58" t="s" s="2">
         <v>20</v>
@@ -9141,13 +9152,13 @@
         <v>20</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>20</v>
+        <v>449</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>20</v>
+        <v>450</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>20</v>
@@ -9165,7 +9176,7 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -9180,7 +9191,7 @@
         <v>100</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>20</v>
@@ -9189,7 +9200,7 @@
         <v>20</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>20</v>
@@ -9197,10 +9208,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9211,7 +9222,7 @@
         <v>79</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>20</v>
@@ -9223,16 +9234,20 @@
         <v>89</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>333</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>20</v>
       </c>
@@ -9244,7 +9259,7 @@
         <v>20</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="U59" t="s" s="2">
         <v>20</v>
@@ -9280,13 +9295,13 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>20</v>
@@ -9295,7 +9310,7 @@
         <v>100</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>461</v>
+        <v>335</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>20</v>
@@ -9304,7 +9319,7 @@
         <v>20</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>20</v>
@@ -9312,24 +9327,24 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>464</v>
+        <v>20</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>20</v>
@@ -9338,13 +9353,13 @@
         <v>89</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9359,7 +9374,7 @@
         <v>20</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="U60" t="s" s="2">
         <v>20</v>
@@ -9395,13 +9410,13 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>20</v>
@@ -9410,7 +9425,7 @@
         <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>20</v>
@@ -9419,7 +9434,7 @@
         <v>20</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>20</v>
@@ -9427,14 +9442,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9444,7 +9459,7 @@
         <v>88</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>20</v>
@@ -9453,17 +9468,15 @@
         <v>89</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>20</v>
@@ -9476,7 +9489,7 @@
         <v>20</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="U61" t="s" s="2">
         <v>20</v>
@@ -9512,7 +9525,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9527,7 +9540,7 @@
         <v>100</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>20</v>
@@ -9536,7 +9549,7 @@
         <v>20</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>20</v>
@@ -9544,14 +9557,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9570,15 +9583,17 @@
         <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>478</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>479</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>20</v>
@@ -9591,7 +9606,7 @@
         <v>20</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>20</v>
+        <v>480</v>
       </c>
       <c r="U62" t="s" s="2">
         <v>20</v>
@@ -9627,7 +9642,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9642,7 +9657,7 @@
         <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>20</v>
@@ -9651,7 +9666,7 @@
         <v>20</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>20</v>
@@ -9659,14 +9674,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9685,13 +9700,13 @@
         <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9706,7 +9721,7 @@
         <v>20</v>
       </c>
       <c r="T63" t="s" s="2">
-        <v>491</v>
+        <v>20</v>
       </c>
       <c r="U63" t="s" s="2">
         <v>20</v>
@@ -9742,7 +9757,7 @@
         <v>20</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9757,7 +9772,7 @@
         <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>20</v>
@@ -9766,7 +9781,7 @@
         <v>20</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>20</v>
@@ -9774,14 +9789,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>20</v>
+        <v>492</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9791,7 +9806,7 @@
         <v>88</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>20</v>
@@ -9800,17 +9815,15 @@
         <v>89</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>497</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>498</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>20</v>
@@ -9823,7 +9836,7 @@
         <v>20</v>
       </c>
       <c r="T64" t="s" s="2">
-        <v>20</v>
+        <v>495</v>
       </c>
       <c r="U64" t="s" s="2">
         <v>20</v>
@@ -9859,7 +9872,7 @@
         <v>20</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9874,7 +9887,7 @@
         <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>20</v>
@@ -9883,7 +9896,7 @@
         <v>20</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>20</v>
@@ -9891,10 +9904,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9908,7 +9921,7 @@
         <v>88</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>20</v>
@@ -9917,18 +9930,18 @@
         <v>89</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>282</v>
+        <v>177</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" t="s" s="2">
-        <v>505</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>20</v>
       </c>
@@ -9940,7 +9953,7 @@
         <v>20</v>
       </c>
       <c r="T65" t="s" s="2">
-        <v>506</v>
+        <v>20</v>
       </c>
       <c r="U65" t="s" s="2">
         <v>20</v>
@@ -9976,7 +9989,7 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9991,7 +10004,7 @@
         <v>100</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>365</v>
+        <v>504</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>20</v>
@@ -10000,7 +10013,7 @@
         <v>20</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>20</v>
@@ -10008,10 +10021,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10031,20 +10044,20 @@
         <v>20</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>194</v>
+        <v>286</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>20</v>
@@ -10057,7 +10070,7 @@
         <v>20</v>
       </c>
       <c r="T66" t="s" s="2">
-        <v>20</v>
+        <v>510</v>
       </c>
       <c r="U66" t="s" s="2">
         <v>20</v>
@@ -10069,13 +10082,13 @@
         <v>20</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>199</v>
+        <v>20</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>513</v>
+        <v>20</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>514</v>
+        <v>20</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>20</v>
@@ -10093,7 +10106,7 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -10108,16 +10121,16 @@
         <v>100</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>515</v>
+        <v>369</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>516</v>
+        <v>20</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>20</v>
@@ -10125,10 +10138,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10151,19 +10164,17 @@
         <v>20</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>519</v>
+        <v>198</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>522</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>20</v>
@@ -10188,13 +10199,13 @@
         <v>20</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>20</v>
+        <v>203</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>20</v>
+        <v>517</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>20</v>
+        <v>518</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>20</v>
@@ -10212,7 +10223,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -10227,16 +10238,16 @@
         <v>100</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>177</v>
+        <v>520</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>20</v>
@@ -10244,10 +10255,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10258,7 +10269,7 @@
         <v>79</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>20</v>
@@ -10270,19 +10281,19 @@
         <v>20</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="O68" t="s" s="2">
         <v>527</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>529</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>530</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>531</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>20</v>
@@ -10331,13 +10342,13 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>20</v>
@@ -10346,16 +10357,16 @@
         <v>100</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>20</v>
@@ -10363,10 +10374,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10389,19 +10400,19 @@
         <v>20</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="O69" t="s" s="2">
         <v>535</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>537</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>538</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>539</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>20</v>
@@ -10450,7 +10461,7 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10462,19 +10473,19 @@
         <v>20</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>540</v>
+        <v>100</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>20</v>
+        <v>537</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>20</v>
@@ -10482,10 +10493,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10496,7 +10507,7 @@
         <v>79</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>20</v>
@@ -10508,16 +10519,20 @@
         <v>20</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>173</v>
+        <v>539</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>174</v>
+        <v>540</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+        <v>541</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>543</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>20</v>
       </c>
@@ -10565,25 +10580,25 @@
         <v>20</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>176</v>
+        <v>538</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>20</v>
+        <v>544</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>177</v>
+        <v>545</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>20</v>
@@ -10597,21 +10612,21 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>20</v>
@@ -10623,17 +10638,15 @@
         <v>20</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M71" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>20</v>
@@ -10682,22 +10695,22 @@
         <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>20</v>
@@ -10714,14 +10727,14 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>545</v>
+        <v>161</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10734,26 +10747,24 @@
         <v>20</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>546</v>
+        <v>183</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>547</v>
+        <v>184</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>20</v>
       </c>
@@ -10801,7 +10812,7 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>548</v>
+        <v>186</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10816,7 +10827,7 @@
         <v>139</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>20</v>
@@ -10833,14 +10844,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>20</v>
+        <v>549</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10853,13 +10864,13 @@
         <v>20</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="L73" t="s" s="2">
         <v>550</v>
@@ -10867,9 +10878,11 @@
       <c r="M73" t="s" s="2">
         <v>551</v>
       </c>
-      <c r="N73" s="2"/>
+      <c r="N73" t="s" s="2">
+        <v>164</v>
+      </c>
       <c r="O73" t="s" s="2">
-        <v>552</v>
+        <v>165</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>20</v>
@@ -10894,13 +10907,13 @@
         <v>20</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>199</v>
+        <v>20</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>553</v>
+        <v>20</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>554</v>
+        <v>20</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>20</v>
@@ -10918,7 +10931,7 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10930,19 +10943,19 @@
         <v>20</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>555</v>
+        <v>131</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>177</v>
+        <v>20</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>556</v>
+        <v>20</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>20</v>
@@ -10950,10 +10963,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10964,7 +10977,7 @@
         <v>79</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>20</v>
@@ -10976,17 +10989,17 @@
         <v>20</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>305</v>
+        <v>198</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>20</v>
@@ -11011,13 +11024,13 @@
         <v>20</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>20</v>
+        <v>203</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>20</v>
+        <v>557</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>20</v>
+        <v>558</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>20</v>
@@ -11035,13 +11048,13 @@
         <v>20</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>20</v>
@@ -11050,16 +11063,16 @@
         <v>100</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>310</v>
+        <v>559</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>20</v>
@@ -11067,10 +11080,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11081,7 +11094,7 @@
         <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>20</v>
@@ -11093,19 +11106,17 @@
         <v>20</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>368</v>
+        <v>309</v>
       </c>
       <c r="L75" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="M75" t="s" s="2">
         <v>563</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
         <v>564</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>20</v>
@@ -11154,13 +11165,13 @@
         <v>20</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>20</v>
@@ -11169,16 +11180,16 @@
         <v>100</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>373</v>
+        <v>314</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>20</v>
@@ -11186,10 +11197,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11200,7 +11211,7 @@
         <v>79</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>20</v>
@@ -11212,17 +11223,19 @@
         <v>20</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>420</v>
+        <v>372</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>569</v>
       </c>
-      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>570</v>
+        <v>376</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>20</v>
@@ -11271,13 +11284,13 @@
         <v>20</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>20</v>
@@ -11286,16 +11299,16 @@
         <v>100</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>425</v>
+        <v>377</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>20</v>
@@ -11303,10 +11316,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11329,17 +11342,17 @@
         <v>20</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>108</v>
+        <v>424</v>
       </c>
       <c r="L77" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="M77" t="s" s="2">
         <v>573</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>574</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>20</v>
@@ -11364,13 +11377,13 @@
         <v>20</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>381</v>
+        <v>20</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>382</v>
+        <v>20</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>20</v>
@@ -11388,7 +11401,7 @@
         <v>20</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11403,16 +11416,16 @@
         <v>100</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>20</v>
@@ -11420,10 +11433,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11446,17 +11459,17 @@
         <v>20</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>289</v>
+        <v>108</v>
       </c>
       <c r="L78" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>578</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>579</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>20</v>
@@ -11481,13 +11494,13 @@
         <v>20</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>20</v>
+        <v>192</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>20</v>
+        <v>385</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>20</v>
+        <v>386</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>20</v>
@@ -11505,7 +11518,7 @@
         <v>20</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -11514,22 +11527,22 @@
         <v>88</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>581</v>
+        <v>20</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>582</v>
+        <v>387</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>20</v>
@@ -11537,10 +11550,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11563,16 +11576,18 @@
         <v>20</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>584</v>
+      </c>
       <c r="P79" t="s" s="2">
         <v>20</v>
       </c>
@@ -11620,7 +11635,7 @@
         <v>20</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11629,22 +11644,22 @@
         <v>88</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>20</v>
+        <v>585</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK79" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN79" t="s" s="2">
         <v>587</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN79" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>20</v>
@@ -11666,7 +11681,7 @@
         <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>20</v>
@@ -11678,7 +11693,7 @@
         <v>20</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>535</v>
+        <v>286</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>589</v>
@@ -11686,12 +11701,8 @@
       <c r="M80" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="N80" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>592</v>
-      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>20</v>
       </c>
@@ -11745,7 +11756,7 @@
         <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>20</v>
@@ -11754,10 +11765,10 @@
         <v>100</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>594</v>
+        <v>181</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>20</v>
@@ -11771,10 +11782,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11785,7 +11796,7 @@
         <v>79</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>20</v>
@@ -11797,16 +11808,20 @@
         <v>20</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>173</v>
+        <v>539</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>174</v>
+        <v>593</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
+        <v>594</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>596</v>
+      </c>
       <c r="P81" t="s" s="2">
         <v>20</v>
       </c>
@@ -11854,25 +11869,25 @@
         <v>20</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>176</v>
+        <v>592</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>177</v>
+        <v>597</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>20</v>
+        <v>598</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>20</v>
@@ -11886,21 +11901,21 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>20</v>
@@ -11912,17 +11927,15 @@
         <v>20</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="L82" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M82" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M82" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>20</v>
@@ -11971,22 +11984,22 @@
         <v>20</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>20</v>
@@ -12003,14 +12016,14 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>545</v>
+        <v>161</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -12023,26 +12036,24 @@
         <v>20</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K83" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>546</v>
+        <v>183</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>547</v>
+        <v>184</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>20</v>
       </c>
@@ -12090,7 +12101,7 @@
         <v>20</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>548</v>
+        <v>186</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -12105,7 +12116,7 @@
         <v>139</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>20</v>
@@ -12122,45 +12133,45 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>20</v>
+        <v>549</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>599</v>
+        <v>550</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>600</v>
+        <v>551</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>601</v>
+        <v>164</v>
       </c>
       <c r="O84" t="s" s="2">
-        <v>602</v>
+        <v>165</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>20</v>
@@ -12185,13 +12196,13 @@
         <v>20</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>112</v>
+        <v>20</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>20</v>
@@ -12209,31 +12220,31 @@
         <v>20</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>598</v>
+        <v>552</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>603</v>
+        <v>131</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>604</v>
+        <v>20</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>605</v>
+        <v>20</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>20</v>
@@ -12241,10 +12252,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12252,7 +12263,7 @@
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>88</v>
@@ -12267,19 +12278,19 @@
         <v>20</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>248</v>
+        <v>198</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="O85" t="s" s="2">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>20</v>
@@ -12304,13 +12315,13 @@
         <v>20</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>20</v>
@@ -12328,10 +12339,10 @@
         <v>20</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>88</v>
@@ -12343,16 +12354,16 @@
         <v>100</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>20</v>
@@ -12360,21 +12371,21 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>615</v>
+        <v>20</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>20</v>
@@ -12386,18 +12397,20 @@
         <v>20</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>616</v>
+        <v>252</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>619</v>
-      </c>
-      <c r="O86" s="2"/>
+        <v>613</v>
+      </c>
+      <c r="O86" t="s" s="2">
+        <v>614</v>
+      </c>
       <c r="P86" t="s" s="2">
         <v>20</v>
       </c>
@@ -12445,13 +12458,13 @@
         <v>20</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>20</v>
@@ -12460,16 +12473,16 @@
         <v>100</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>177</v>
+        <v>616</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="AO86" t="s" s="2">
         <v>20</v>
@@ -12477,21 +12490,21 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>20</v>
+        <v>619</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>20</v>
@@ -12500,23 +12513,21 @@
         <v>20</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>289</v>
+        <v>620</v>
       </c>
       <c r="L87" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="N87" t="s" s="2">
         <v>623</v>
       </c>
-      <c r="M87" t="s" s="2">
-        <v>624</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>625</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>626</v>
-      </c>
+      <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>20</v>
       </c>
@@ -12564,13 +12575,13 @@
         <v>20</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>20</v>
@@ -12579,16 +12590,16 @@
         <v>100</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>582</v>
+        <v>624</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>627</v>
+        <v>181</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>20</v>
+        <v>625</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>20</v>
@@ -12596,10 +12607,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12610,31 +12621,31 @@
         <v>79</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J88" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>535</v>
+        <v>293</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="N88" t="s" s="2">
         <v>629</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="O88" t="s" s="2">
         <v>630</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>631</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>632</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>20</v>
@@ -12683,13 +12694,13 @@
         <v>20</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>20</v>
@@ -12698,10 +12709,10 @@
         <v>100</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>633</v>
+        <v>586</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>177</v>
+        <v>631</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>20</v>
@@ -12715,10 +12726,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12729,28 +12740,32 @@
         <v>79</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>173</v>
+        <v>539</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>174</v>
+        <v>633</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
+        <v>634</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>636</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>20</v>
       </c>
@@ -12798,25 +12813,25 @@
         <v>20</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>176</v>
+        <v>632</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>177</v>
+        <v>637</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>20</v>
@@ -12830,21 +12845,21 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>20</v>
@@ -12856,17 +12871,15 @@
         <v>20</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>133</v>
+        <v>177</v>
       </c>
       <c r="L90" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M90" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>160</v>
-      </c>
+      <c r="N90" s="2"/>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>20</v>
@@ -12915,22 +12928,22 @@
         <v>20</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>139</v>
+        <v>20</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>20</v>
@@ -12947,14 +12960,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>545</v>
+        <v>161</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -12967,26 +12980,24 @@
         <v>20</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="K91" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>546</v>
+        <v>183</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>547</v>
+        <v>184</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>20</v>
       </c>
@@ -13034,7 +13045,7 @@
         <v>20</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>548</v>
+        <v>186</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -13049,7 +13060,7 @@
         <v>139</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>20</v>
@@ -13066,44 +13077,46 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>20</v>
+        <v>549</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>20</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="J92" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>638</v>
+        <v>133</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>639</v>
+        <v>550</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>640</v>
+        <v>551</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="O92" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="P92" t="s" s="2">
         <v>20</v>
       </c>
@@ -13151,31 +13164,31 @@
         <v>20</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>637</v>
+        <v>552</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>168</v>
+        <v>131</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>177</v>
+        <v>20</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AN92" t="s" s="2">
-        <v>642</v>
+        <v>20</v>
       </c>
       <c r="AO92" t="s" s="2">
         <v>20</v>
@@ -13183,10 +13196,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13209,15 +13222,17 @@
         <v>89</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>108</v>
+        <v>642</v>
       </c>
       <c r="L93" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>644</v>
       </c>
-      <c r="M93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>645</v>
       </c>
-      <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>20</v>
@@ -13242,13 +13257,13 @@
         <v>20</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>645</v>
+        <v>20</v>
       </c>
       <c r="Z93" t="s" s="2">
-        <v>646</v>
+        <v>20</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>20</v>
@@ -13266,7 +13281,7 @@
         <v>20</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>88</v>
@@ -13281,23 +13296,138 @@
         <v>100</v>
       </c>
       <c r="AK93" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="AO93" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
         <v>647</v>
       </c>
-      <c r="AL93" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AM93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AN93" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AO93" t="s" s="2">
+      <c r="B94" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AO94" t="s" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO93">
+  <autoFilter ref="A1:AO94">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13307,7 +13437,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI92">
+  <conditionalFormatting sqref="A2:AI93">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
